--- a/data/trans_bre/P19C08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Habitat-trans_bre.xlsx
@@ -660,20 +660,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6023802105520978</v>
+        <v>-0.4491332276381317</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8642504636094339</v>
+        <v>-0.9347821692052019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3447944612527145</v>
+        <v>-0.3035806761847746</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.438623205299827</v>
+        <v>-1.363400425927373</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.689060628427215</v>
+        <v>-0.7558134999292377</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
@@ -686,20 +686,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7501347373727636</v>
+        <v>0.7583515678366641</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.49465312494648</v>
+        <v>1.374481121351226</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.003957966698081</v>
+        <v>1.00879164094788</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04191309112338894</v>
+        <v>-0.01868191890995739</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>3.605123737791452</v>
+        <v>3.568382114500967</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
@@ -737,7 +737,7 @@
         <v>-0.01027921202429476</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2.363526666404206</v>
+        <v>2.363526666404205</v>
       </c>
     </row>
     <row r="8">
@@ -748,21 +748,19 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.1312182246456509</v>
+        <v>-0.2577133566591123</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.02632892193788</v>
+        <v>-0.8650772630915177</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.4278169610292725</v>
+        <v>-0.4229566523387047</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.0491582575149915</v>
+        <v>-0.05629119799366417</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
-      <c r="H8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
     </row>
@@ -774,16 +772,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8697493013603668</v>
+        <v>0.744354185487726</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6773804347883511</v>
+        <v>0.6737967597779795</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2811012541693962</v>
+        <v>0.281531151834917</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4539207269742218</v>
+        <v>0.4510524428412722</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -811,7 +809,7 @@
         <v>0.2615467334714058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.4009955019923258</v>
+        <v>-0.4009955019923256</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.07211758419422772</v>
@@ -823,7 +821,7 @@
         <v>1.408971359538404</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3197480155357632</v>
+        <v>-0.319748015535763</v>
       </c>
     </row>
     <row r="11">
@@ -834,22 +832,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9188868088487974</v>
+        <v>-0.9031112775534622</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.396202722277333</v>
+        <v>-2.101080624671428</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.370609299784503</v>
+        <v>-0.3675188348139024</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.026259789117987</v>
+        <v>-2.295431260044644</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.8325373875816146</v>
+        <v>-0.8620914697960933</v>
       </c>
     </row>
     <row r="12">
@@ -860,22 +858,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7010924431869184</v>
+        <v>0.7358549379236501</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.3210025339730946</v>
+        <v>-0.3159269195190096</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.145967928392894</v>
+        <v>1.235594455171945</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6626510026419458</v>
+        <v>0.4927658130511764</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.698033018999509</v>
+        <v>1.068653339927904</v>
       </c>
     </row>
     <row r="13">
@@ -899,7 +897,7 @@
         <v>-0.1341179444493044</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2249179699559828</v>
+        <v>0.2249179699559827</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8617178471015601</v>
@@ -911,7 +909,7 @@
         <v>-1</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6264409181374223</v>
+        <v>0.6264409181374221</v>
       </c>
     </row>
     <row r="14">
@@ -922,26 +920,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3956581969578702</v>
+        <v>-0.3562141216762796</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.1760534574903846</v>
+        <v>-0.1676800611164867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.664326031228295</v>
+        <v>-0.673523945262455</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.3483543829924209</v>
+        <v>-0.3265483486380328</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.582283163397922</v>
+        <v>-0.6029747271240191</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5030352352347631</v>
+        <v>-0.500297381619582</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.665593124970574</v>
+        <v>-0.5797990541972935</v>
       </c>
     </row>
     <row r="15">
@@ -952,24 +950,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.327961992874104</v>
+        <v>1.385688275667577</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.297390299178089</v>
+        <v>1.27925483558972</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7978430570443232</v>
+        <v>0.8513480623289599</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7.792514159779455</v>
+        <v>9.004640970982591</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>7.481744672411766</v>
+        <v>8.17835903966062</v>
       </c>
     </row>
     <row r="16">
@@ -1016,28 +1014,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1464882896342437</v>
+        <v>-0.1455244595567493</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4550536620427721</v>
+        <v>-0.4934654088095299</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.1551914593211905</v>
+        <v>-0.1684899804961992</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.5179518820652582</v>
+        <v>-0.5023378876116351</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3938399496924989</v>
+        <v>-0.3429017528365528</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5366016672713348</v>
+        <v>-0.5581917396115574</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7447160182500271</v>
+        <v>-0.8540732877468672</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.615120371730687</v>
+        <v>-0.6063572044959742</v>
       </c>
     </row>
     <row r="18">
@@ -1048,28 +1046,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5632854666168655</v>
+        <v>0.5798479095733343</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4017021930801276</v>
+        <v>0.3939780170680079</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3080054495210867</v>
+        <v>0.2961271654211791</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2212736373573889</v>
+        <v>0.2305792535105566</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.77399570378874</v>
+        <v>3.121389724891809</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.041374935754157</v>
+        <v>0.936321419460444</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6.433543426471918</v>
+        <v>5.4225278288111</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8349851734152869</v>
+        <v>0.8025010188536807</v>
       </c>
     </row>
     <row r="19">
